--- a/test.xlsx
+++ b/test.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\divrem\Desktop\VB Script Training\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995"/>
   </bookViews>
@@ -11,22 +16,50 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="145621"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
-  <si>
-    <t>test1</t>
-  </si>
-  <si>
-    <t>test2</t>
-  </si>
-  <si>
-    <t>test 3</t>
-  </si>
-  <si>
-    <t>Test4</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="13">
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>order_kind</t>
+  </si>
+  <si>
+    <t>run_status</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>abc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">no </t>
+  </si>
+  <si>
+    <t>abc _y</t>
+  </si>
+  <si>
+    <t>abc_s</t>
+  </si>
+  <si>
+    <t>_s</t>
+  </si>
+  <si>
+    <t>abcd</t>
+  </si>
+  <si>
+    <t>abcfg</t>
+  </si>
+  <si>
+    <t>adad</t>
+  </si>
+  <si>
+    <t>Fail</t>
   </si>
 </sst>
 </file>
@@ -62,8 +95,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -73,6 +107,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -121,7 +158,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -156,7 +193,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -365,122 +402,235 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B19"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B2">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B3">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="B4">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B5">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B6">
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>2</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>2</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19">
         <v>105</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B7">
+      <c r="C19" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20">
         <v>106</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B8">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21">
         <v>107</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B10">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B11">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B12">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B13">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>3</v>
-      </c>
-      <c r="B14">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B15">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B16">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B17">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B18">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B19">
-        <v>109</v>
+      <c r="C21" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
